--- a/aiutils/api/future_classify.xlsx
+++ b/aiutils/api/future_classify.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$85</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="271">
   <si>
     <t>underlying</t>
   </si>
@@ -925,6 +925,22 @@
   </si>
   <si>
     <t>金属</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>碳酸锂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁二烯橡胶</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1007,7 +1023,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1023,6 +1039,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1303,27 +1320,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6:H6"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="3" width="14.375" customWidth="1"/>
-    <col min="4" max="4" width="23.625" customWidth="1"/>
-    <col min="5" max="5" width="20.125" customWidth="1"/>
-    <col min="6" max="6" width="12.875" customWidth="1"/>
-    <col min="7" max="7" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>257</v>
       </c>
@@ -1344,7 +1361,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1370,7 +1387,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1396,7 +1413,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1422,7 +1439,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1448,7 +1465,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>263</v>
       </c>
@@ -1474,7 +1491,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1500,7 +1517,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1526,7 +1543,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1552,7 +1569,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1578,7 +1595,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1604,67 +1621,67 @@
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>269</v>
       </c>
       <c r="B12" t="s">
         <v>168</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>270</v>
       </c>
       <c r="D12" s="2">
-        <v>41556</v>
+        <v>45135</v>
       </c>
       <c r="E12" s="2">
         <v>72686</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s">
-        <v>188</v>
+        <v>50</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>192</v>
       </c>
       <c r="H12" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="2">
+        <v>41556</v>
+      </c>
+      <c r="E13" s="2">
+        <v>72686</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>188</v>
+      </c>
+      <c r="H13" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>167</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
-      </c>
-      <c r="D13" s="2">
-        <v>38355</v>
-      </c>
-      <c r="E13" s="2">
-        <v>72686</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" t="s">
-        <v>185</v>
-      </c>
-      <c r="H13" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>170</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
       </c>
       <c r="D14" s="2">
         <v>38355</v>
@@ -1673,53 +1690,53 @@
         <v>72686</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
         <v>170</v>
       </c>
       <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="2">
+        <v>38355</v>
+      </c>
+      <c r="E15" s="2">
+        <v>72686</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" t="s">
+        <v>189</v>
+      </c>
+      <c r="H15" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D16" s="2">
         <v>43585</v>
-      </c>
-      <c r="E15" s="2">
-        <v>72686</v>
-      </c>
-      <c r="F15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" t="s">
-        <v>185</v>
-      </c>
-      <c r="H15" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" t="s">
-        <v>167</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="2">
-        <v>41992</v>
       </c>
       <c r="E16" s="2">
         <v>72686</v>
@@ -1728,102 +1745,102 @@
         <v>26</v>
       </c>
       <c r="G16" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="H16" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="2">
+        <v>41992</v>
+      </c>
+      <c r="E17" s="2">
+        <v>72686</v>
+      </c>
+      <c r="F17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s">
+        <v>180</v>
+      </c>
+      <c r="H17" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>34</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>168</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D18" s="2">
         <v>38355</v>
       </c>
-      <c r="E17" s="2">
-        <v>72686</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="E18" s="2">
+        <v>72686</v>
+      </c>
+      <c r="F18" t="s">
         <v>7</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G18" t="s">
         <v>190</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H18" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>36</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>170</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D19" s="2">
         <v>42965</v>
       </c>
-      <c r="E18" s="2">
-        <v>72686</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="E19" s="2">
+        <v>72686</v>
+      </c>
+      <c r="F19" t="s">
         <v>38</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G19" t="s">
         <v>191</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H19" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>39</v>
-      </c>
-      <c r="B19" t="s">
-        <v>167</v>
-      </c>
-      <c r="C19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="2">
-        <v>43734</v>
-      </c>
-      <c r="E19" s="2">
-        <v>72686</v>
-      </c>
-      <c r="F19" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" t="s">
-        <v>192</v>
-      </c>
-      <c r="H19" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>42</v>
       </c>
       <c r="B20" t="s">
         <v>167</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D20" s="2">
-        <v>43444</v>
+        <v>43734</v>
       </c>
       <c r="E20" s="2">
         <v>72686</v>
@@ -1832,272 +1849,275 @@
         <v>41</v>
       </c>
       <c r="G20" t="s">
+        <v>192</v>
+      </c>
+      <c r="H20" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>167</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="2">
+        <v>43444</v>
+      </c>
+      <c r="E21" s="2">
+        <v>72686</v>
+      </c>
+      <c r="F21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" t="s">
         <v>193</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H21" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>170</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D22" s="2">
         <v>39923</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E22" s="2">
         <v>41417</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F22" t="s">
         <v>240</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G22" t="s">
         <v>194</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H22" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>46</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>167</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D23" s="2">
         <v>41614</v>
       </c>
-      <c r="E22" s="2">
-        <v>72686</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="E23" s="2">
+        <v>72686</v>
+      </c>
+      <c r="F23" t="s">
         <v>241</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G23" t="s">
         <v>186</v>
-      </c>
-      <c r="H22" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" t="s">
-        <v>170</v>
-      </c>
-      <c r="C23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="2">
-        <v>41246</v>
-      </c>
-      <c r="E23" s="2">
-        <v>72686</v>
-      </c>
-      <c r="F23" t="s">
-        <v>50</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="H23" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="2">
+        <v>41246</v>
+      </c>
+      <c r="E24" s="2">
+        <v>72686</v>
+      </c>
+      <c r="F24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="H24" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>51</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>168</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>52</v>
-      </c>
-      <c r="D24" s="2">
-        <v>38355</v>
-      </c>
-      <c r="E24" s="2">
-        <v>72686</v>
-      </c>
-      <c r="F24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" t="s">
-        <v>195</v>
-      </c>
-      <c r="H24" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" t="s">
-        <v>170</v>
-      </c>
-      <c r="C25" t="s">
-        <v>54</v>
       </c>
       <c r="D25" s="2">
         <v>38355</v>
       </c>
       <c r="E25" s="2">
+        <v>72686</v>
+      </c>
+      <c r="F25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" t="s">
+        <v>195</v>
+      </c>
+      <c r="H25" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>170</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="2">
+        <v>38355</v>
+      </c>
+      <c r="E26" s="2">
         <v>40260</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F26" t="s">
         <v>242</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G26" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>55</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>168</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D27" s="2">
         <v>41719</v>
       </c>
-      <c r="E26" s="2">
-        <v>72686</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="E27" s="2">
+        <v>72686</v>
+      </c>
+      <c r="F27" t="s">
         <v>57</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G27" t="s">
         <v>196</v>
-      </c>
-      <c r="H26" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" t="s">
-        <v>167</v>
-      </c>
-      <c r="C27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="2">
-        <v>41565</v>
-      </c>
-      <c r="E27" s="2">
-        <v>72686</v>
-      </c>
-      <c r="F27" t="s">
-        <v>50</v>
-      </c>
-      <c r="G27" t="s">
-        <v>197</v>
       </c>
       <c r="H27" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" t="s">
+        <v>167</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="2">
+        <v>41565</v>
+      </c>
+      <c r="E28" s="2">
+        <v>72686</v>
+      </c>
+      <c r="F28" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" t="s">
+        <v>197</v>
+      </c>
+      <c r="H28" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>60</v>
-      </c>
-      <c r="B28" t="s">
-        <v>174</v>
-      </c>
-      <c r="C28" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="2">
-        <v>42110</v>
-      </c>
-      <c r="E28" s="2">
-        <v>72686</v>
-      </c>
-      <c r="F28" t="s">
-        <v>62</v>
-      </c>
-      <c r="G28" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>63</v>
       </c>
       <c r="B29" t="s">
         <v>174</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D29" s="2">
-        <v>40284</v>
+        <v>42110</v>
       </c>
       <c r="E29" s="2">
         <v>72686</v>
       </c>
       <c r="F29" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G29" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s">
         <v>174</v>
       </c>
       <c r="C30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="2">
+        <v>40284</v>
+      </c>
+      <c r="E30" s="2">
+        <v>72686</v>
+      </c>
+      <c r="F30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" t="s">
+        <v>174</v>
+      </c>
+      <c r="C31" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D31" s="2">
         <v>42110</v>
-      </c>
-      <c r="E30" s="2">
-        <v>72686</v>
-      </c>
-      <c r="F30" t="s">
-        <v>68</v>
-      </c>
-      <c r="G30" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>247</v>
-      </c>
-      <c r="B31" t="s">
-        <v>248</v>
-      </c>
-      <c r="C31" t="s">
-        <v>249</v>
-      </c>
-      <c r="D31" s="2">
-        <v>44764</v>
       </c>
       <c r="E31" s="2">
         <v>72686</v>
@@ -2109,798 +2129,795 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>247</v>
+      </c>
+      <c r="B32" t="s">
+        <v>248</v>
+      </c>
+      <c r="C32" t="s">
+        <v>249</v>
+      </c>
+      <c r="D32" s="2">
+        <v>44764</v>
+      </c>
+      <c r="E32" s="2">
+        <v>72686</v>
+      </c>
+      <c r="F32" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>69</v>
-      </c>
-      <c r="B32" t="s">
-        <v>167</v>
-      </c>
-      <c r="C32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="2">
-        <v>40648</v>
-      </c>
-      <c r="E32" s="2">
-        <v>72686</v>
-      </c>
-      <c r="F32" t="s">
-        <v>71</v>
-      </c>
-      <c r="G32" t="s">
-        <v>197</v>
-      </c>
-      <c r="H32" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>72</v>
       </c>
       <c r="B33" t="s">
         <v>167</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D33" s="2">
-        <v>41586</v>
+        <v>40648</v>
       </c>
       <c r="E33" s="2">
         <v>72686</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="G33" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="H33" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B34" t="s">
         <v>167</v>
       </c>
       <c r="C34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="2">
+        <v>41586</v>
+      </c>
+      <c r="E34" s="2">
+        <v>72686</v>
+      </c>
+      <c r="F34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" t="s">
+        <v>204</v>
+      </c>
+      <c r="H34" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" t="s">
         <v>75</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D35" s="2">
         <v>41355</v>
       </c>
-      <c r="E34" s="2">
-        <v>72686</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="E35" s="2">
+        <v>72686</v>
+      </c>
+      <c r="F35" t="s">
         <v>71</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G35" t="s">
         <v>201</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H35" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>76</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>170</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D36" s="2">
         <v>41596</v>
       </c>
-      <c r="E35" s="2">
-        <v>72686</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="E36" s="2">
+        <v>72686</v>
+      </c>
+      <c r="F36" t="s">
         <v>242</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G36" t="s">
         <v>185</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H36" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>78</v>
-      </c>
-      <c r="B36" t="s">
-        <v>167</v>
-      </c>
-      <c r="C36" t="s">
-        <v>79</v>
-      </c>
-      <c r="D36" s="2">
-        <v>39294</v>
-      </c>
-      <c r="E36" s="2">
-        <v>72686</v>
-      </c>
-      <c r="F36" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" t="s">
-        <v>202</v>
-      </c>
-      <c r="H36" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>80</v>
       </c>
       <c r="B37" t="s">
         <v>167</v>
       </c>
       <c r="C37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="2">
+        <v>39294</v>
+      </c>
+      <c r="E37" s="2">
+        <v>72686</v>
+      </c>
+      <c r="F37" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" t="s">
+        <v>202</v>
+      </c>
+      <c r="H37" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>267</v>
+      </c>
+      <c r="B38" t="s">
+        <v>252</v>
+      </c>
+      <c r="C38" t="s">
+        <v>268</v>
+      </c>
+      <c r="D38" s="2">
+        <v>45128</v>
+      </c>
+      <c r="E38" s="2">
+        <v>72686</v>
+      </c>
+      <c r="F38" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" t="s">
+        <v>190</v>
+      </c>
+      <c r="H38" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" t="s">
+        <v>167</v>
+      </c>
+      <c r="C39" t="s">
         <v>81</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D39" s="2">
         <v>44204</v>
       </c>
-      <c r="E37" s="2">
-        <v>72686</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="E39" s="2">
+        <v>72686</v>
+      </c>
+      <c r="F39" t="s">
         <v>38</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G39" t="s">
         <v>203</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H39" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>82</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B40" t="s">
         <v>170</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C40" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D40" s="2">
         <v>41828</v>
       </c>
-      <c r="E38" s="2">
-        <v>72686</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="E40" s="2">
+        <v>72686</v>
+      </c>
+      <c r="F40" t="s">
         <v>243</v>
-      </c>
-      <c r="G38" t="s">
-        <v>185</v>
-      </c>
-      <c r="H38" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>84</v>
-      </c>
-      <c r="B39" t="s">
-        <v>173</v>
-      </c>
-      <c r="C39" t="s">
-        <v>85</v>
-      </c>
-      <c r="D39" s="2">
-        <v>44004</v>
-      </c>
-      <c r="E39" s="2">
-        <v>72686</v>
-      </c>
-      <c r="F39" t="s">
-        <v>244</v>
-      </c>
-      <c r="G39" t="s">
-        <v>205</v>
-      </c>
-      <c r="H39" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>86</v>
-      </c>
-      <c r="B40" t="s">
-        <v>167</v>
-      </c>
-      <c r="C40" t="s">
-        <v>87</v>
-      </c>
-      <c r="D40" s="2">
-        <v>38355</v>
-      </c>
-      <c r="E40" s="2">
-        <v>72686</v>
-      </c>
-      <c r="F40" t="s">
-        <v>26</v>
       </c>
       <c r="G40" t="s">
         <v>185</v>
       </c>
       <c r="H40" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B41" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D41" s="2">
-        <v>41807</v>
+        <v>44004</v>
       </c>
       <c r="E41" s="2">
         <v>72686</v>
       </c>
       <c r="F41" t="s">
-        <v>41</v>
+        <v>244</v>
       </c>
       <c r="G41" t="s">
         <v>205</v>
       </c>
       <c r="H41" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" t="s">
+        <v>167</v>
+      </c>
+      <c r="C42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="2">
+        <v>38355</v>
+      </c>
+      <c r="E42" s="2">
+        <v>72686</v>
+      </c>
+      <c r="F42" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42" t="s">
+        <v>185</v>
+      </c>
+      <c r="H42" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" t="s">
+        <v>170</v>
+      </c>
+      <c r="C43" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="2">
+        <v>41807</v>
+      </c>
+      <c r="E43" s="2">
+        <v>72686</v>
+      </c>
+      <c r="F43" t="s">
+        <v>41</v>
+      </c>
+      <c r="G43" t="s">
+        <v>205</v>
+      </c>
+      <c r="H43" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>90</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B44" t="s">
         <v>170</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C44" t="s">
         <v>89</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D44" s="2">
         <v>40844</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E44" s="2">
         <v>42139</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F44" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="G42" t="s">
-        <v>192</v>
-      </c>
-      <c r="H42" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>91</v>
-      </c>
-      <c r="B43" t="s">
-        <v>168</v>
-      </c>
-      <c r="C43" t="s">
-        <v>92</v>
-      </c>
-      <c r="D43" s="2">
-        <v>42090</v>
-      </c>
-      <c r="E43" s="2">
-        <v>72686</v>
-      </c>
-      <c r="F43" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43" t="s">
-        <v>190</v>
-      </c>
-      <c r="H43" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>93</v>
-      </c>
-      <c r="B44" t="s">
-        <v>173</v>
-      </c>
-      <c r="C44" t="s">
-        <v>94</v>
-      </c>
-      <c r="D44" s="2">
-        <v>43689</v>
-      </c>
-      <c r="E44" s="2">
-        <v>72686</v>
-      </c>
-      <c r="F44" t="s">
-        <v>50</v>
-      </c>
-      <c r="G44" s="3" t="s">
+      <c r="G44" t="s">
         <v>192</v>
       </c>
       <c r="H44" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" t="s">
+        <v>168</v>
+      </c>
+      <c r="C45" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" s="2">
+        <v>42090</v>
+      </c>
+      <c r="E45" s="2">
+        <v>72686</v>
+      </c>
+      <c r="F45" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" t="s">
+        <v>190</v>
+      </c>
+      <c r="H45" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" t="s">
+        <v>173</v>
+      </c>
+      <c r="C46" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" s="2">
+        <v>43689</v>
+      </c>
+      <c r="E46" s="2">
+        <v>72686</v>
+      </c>
+      <c r="F46" t="s">
+        <v>50</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="H46" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>95</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B47" t="s">
         <v>170</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C47" t="s">
         <v>96</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D47" s="2">
         <v>41106</v>
       </c>
-      <c r="E45" s="2">
-        <v>72686</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="E47" s="2">
+        <v>72686</v>
+      </c>
+      <c r="F47" t="s">
         <v>26</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G47" t="s">
         <v>180</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H47" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>97</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B48" t="s">
         <v>172</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C48" t="s">
         <v>98</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D48" s="2">
         <v>39384</v>
       </c>
-      <c r="E46" s="2">
-        <v>72686</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="E48" s="2">
+        <v>72686</v>
+      </c>
+      <c r="F48" t="s">
         <v>26</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G48" t="s">
         <v>206</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H48" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>99</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B49" t="s">
         <v>168</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C49" t="s">
         <v>100</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D49" s="2">
         <v>40626</v>
       </c>
-      <c r="E47" s="2">
-        <v>72686</v>
-      </c>
-      <c r="F47" t="s">
+      <c r="E49" s="2">
+        <v>72686</v>
+      </c>
+      <c r="F49" t="s">
         <v>10</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G49" t="s">
         <v>207</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H49" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>101</v>
-      </c>
-      <c r="B48" t="s">
-        <v>170</v>
-      </c>
-      <c r="C48" t="s">
-        <v>102</v>
-      </c>
-      <c r="D48" s="2">
-        <v>44116</v>
-      </c>
-      <c r="E48" s="2">
-        <v>72686</v>
-      </c>
-      <c r="F48" t="s">
-        <v>244</v>
-      </c>
-      <c r="G48" t="s">
-        <v>192</v>
-      </c>
-      <c r="H48" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>103</v>
-      </c>
-      <c r="B49" t="s">
-        <v>167</v>
-      </c>
-      <c r="C49" t="s">
-        <v>104</v>
-      </c>
-      <c r="D49" s="2">
-        <v>43920</v>
-      </c>
-      <c r="E49" s="2">
-        <v>72686</v>
-      </c>
-      <c r="F49" t="s">
-        <v>23</v>
-      </c>
-      <c r="G49" t="s">
-        <v>192</v>
-      </c>
-      <c r="H49" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>105</v>
       </c>
       <c r="B50" t="s">
         <v>170</v>
       </c>
       <c r="C50" t="s">
+        <v>102</v>
+      </c>
+      <c r="D50" s="2">
+        <v>44116</v>
+      </c>
+      <c r="E50" s="2">
+        <v>72686</v>
+      </c>
+      <c r="F50" t="s">
+        <v>244</v>
+      </c>
+      <c r="G50" t="s">
+        <v>192</v>
+      </c>
+      <c r="H50" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" t="s">
+        <v>167</v>
+      </c>
+      <c r="C51" t="s">
+        <v>104</v>
+      </c>
+      <c r="D51" s="2">
+        <v>43920</v>
+      </c>
+      <c r="E51" s="2">
+        <v>72686</v>
+      </c>
+      <c r="F51" t="s">
+        <v>23</v>
+      </c>
+      <c r="G51" t="s">
+        <v>192</v>
+      </c>
+      <c r="H51" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" t="s">
+        <v>170</v>
+      </c>
+      <c r="C52" t="s">
         <v>106</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D52" s="2">
         <v>44228</v>
       </c>
-      <c r="E50" s="2">
-        <v>72686</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="E52" s="2">
+        <v>72686</v>
+      </c>
+      <c r="F52" t="s">
         <v>4</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G52" t="s">
         <v>185</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H52" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>107</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B53" t="s">
         <v>170</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C53" t="s">
         <v>108</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D53" s="2">
         <v>40925</v>
       </c>
-      <c r="E51" s="2">
-        <v>72686</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="E53" s="2">
+        <v>72686</v>
+      </c>
+      <c r="F53" t="s">
         <v>242</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G53" t="s">
         <v>206</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H53" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>109</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B54" t="s">
         <v>167</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C54" t="s">
         <v>110</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D54" s="2">
         <v>41698</v>
       </c>
-      <c r="E52" s="2">
-        <v>72686</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="E54" s="2">
+        <v>72686</v>
+      </c>
+      <c r="F54" t="s">
         <v>23</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G54" t="s">
         <v>205</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H54" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>111</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B55" t="s">
         <v>168</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C55" t="s">
         <v>112</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D55" s="2">
         <v>39899</v>
       </c>
-      <c r="E53" s="2">
-        <v>72686</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="E55" s="2">
+        <v>72686</v>
+      </c>
+      <c r="F55" t="s">
         <v>57</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G55" t="s">
         <v>197</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H55" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>113</v>
-      </c>
-      <c r="B54" t="s">
-        <v>170</v>
-      </c>
-      <c r="C54" t="s">
-        <v>45</v>
-      </c>
-      <c r="D54" s="2">
-        <v>41114</v>
-      </c>
-      <c r="E54" s="2">
-        <v>72686</v>
-      </c>
-      <c r="F54" t="s">
-        <v>240</v>
-      </c>
-      <c r="G54" t="s">
-        <v>185</v>
-      </c>
-      <c r="H54" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>114</v>
-      </c>
-      <c r="B55" t="s">
-        <v>175</v>
-      </c>
-      <c r="C55" t="s">
-        <v>115</v>
-      </c>
-      <c r="D55" s="2">
-        <v>41271</v>
-      </c>
-      <c r="E55" s="2">
-        <v>72686</v>
-      </c>
-      <c r="F55" t="s">
-        <v>4</v>
-      </c>
-      <c r="G55" t="s">
-        <v>206</v>
-      </c>
-      <c r="H55" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>116</v>
       </c>
       <c r="B56" t="s">
         <v>170</v>
       </c>
       <c r="C56" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="D56" s="2">
-        <v>39241</v>
+        <v>41114</v>
       </c>
       <c r="E56" s="2">
-        <v>41409</v>
+        <v>72686</v>
       </c>
       <c r="F56" t="s">
+        <v>240</v>
+      </c>
+      <c r="G56" t="s">
+        <v>185</v>
+      </c>
+      <c r="H56" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" t="s">
+        <v>175</v>
+      </c>
+      <c r="C57" t="s">
+        <v>115</v>
+      </c>
+      <c r="D57" s="2">
+        <v>41271</v>
+      </c>
+      <c r="E57" s="2">
+        <v>72686</v>
+      </c>
+      <c r="F57" t="s">
         <v>4</v>
       </c>
-      <c r="G56" t="s">
-        <v>208</v>
-      </c>
-      <c r="H56" t="s">
+      <c r="G57" t="s">
+        <v>206</v>
+      </c>
+      <c r="H57" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>117</v>
-      </c>
-      <c r="B57" t="s">
-        <v>167</v>
-      </c>
-      <c r="C57" t="s">
-        <v>118</v>
-      </c>
-      <c r="D57" s="2">
-        <v>43693</v>
-      </c>
-      <c r="E57" s="2">
-        <v>72686</v>
-      </c>
-      <c r="F57" t="s">
-        <v>245</v>
-      </c>
-      <c r="G57" t="s">
-        <v>185</v>
-      </c>
-      <c r="H57" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B58" t="s">
         <v>170</v>
       </c>
       <c r="C58" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="D58" s="2">
-        <v>41271</v>
+        <v>39241</v>
       </c>
       <c r="E58" s="2">
-        <v>72686</v>
+        <v>41409</v>
       </c>
       <c r="F58" t="s">
-        <v>242</v>
+        <v>4</v>
       </c>
       <c r="G58" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="H58" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B59" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C59" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D59" s="2">
-        <v>38355</v>
+        <v>43693</v>
       </c>
       <c r="E59" s="2">
         <v>72686</v>
       </c>
       <c r="F59" t="s">
-        <v>57</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>192</v>
+        <v>245</v>
+      </c>
+      <c r="G59" t="s">
+        <v>185</v>
       </c>
       <c r="H59" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B60" t="s">
         <v>170</v>
       </c>
       <c r="C60" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D60" s="2">
-        <v>43805</v>
+        <v>41271</v>
       </c>
       <c r="E60" s="2">
         <v>72686</v>
       </c>
       <c r="F60" t="s">
-        <v>50</v>
-      </c>
-      <c r="G60" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G60" t="s">
+        <v>185</v>
+      </c>
+      <c r="H60" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61" t="s">
+        <v>168</v>
+      </c>
+      <c r="C61" t="s">
+        <v>122</v>
+      </c>
+      <c r="D61" s="2">
+        <v>38355</v>
+      </c>
+      <c r="E61" s="2">
+        <v>72686</v>
+      </c>
+      <c r="F61" t="s">
+        <v>57</v>
+      </c>
+      <c r="G61" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H61" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>125</v>
-      </c>
-      <c r="B61" t="s">
-        <v>173</v>
-      </c>
-      <c r="C61" t="s">
-        <v>126</v>
-      </c>
-      <c r="D61" s="2">
-        <v>43185</v>
-      </c>
-      <c r="E61" s="2">
-        <v>72686</v>
-      </c>
-      <c r="F61" t="s">
-        <v>41</v>
-      </c>
-      <c r="G61" t="s">
-        <v>192</v>
-      </c>
-      <c r="H61" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B62" t="s">
         <v>170</v>
       </c>
       <c r="C62" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D62" s="2">
-        <v>41859</v>
+        <v>43805</v>
       </c>
       <c r="E62" s="2">
         <v>72686</v>
@@ -2908,48 +2925,48 @@
       <c r="F62" t="s">
         <v>50</v>
       </c>
-      <c r="G62" t="s">
-        <v>197</v>
+      <c r="G62" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="H62" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>251</v>
+        <v>125</v>
       </c>
       <c r="B63" t="s">
-        <v>252</v>
+        <v>173</v>
       </c>
       <c r="C63" t="s">
-        <v>253</v>
+        <v>126</v>
       </c>
       <c r="D63" s="2">
-        <v>44917</v>
+        <v>43185</v>
       </c>
       <c r="E63" s="2">
         <v>72686</v>
       </c>
       <c r="F63" t="s">
-        <v>260</v>
+        <v>41</v>
       </c>
       <c r="G63" t="s">
-        <v>259</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+      <c r="H63" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B64" t="s">
         <v>170</v>
       </c>
       <c r="C64" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D64" s="2">
         <v>41859</v>
@@ -2967,243 +2984,249 @@
         <v>225</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>251</v>
+      </c>
+      <c r="B65" t="s">
+        <v>252</v>
+      </c>
+      <c r="C65" t="s">
+        <v>253</v>
+      </c>
+      <c r="D65" s="2">
+        <v>44917</v>
+      </c>
+      <c r="E65" s="2">
+        <v>72686</v>
+      </c>
+      <c r="F65" t="s">
+        <v>260</v>
+      </c>
+      <c r="G65" t="s">
+        <v>259</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" t="s">
+        <v>170</v>
+      </c>
+      <c r="C66" t="s">
+        <v>130</v>
+      </c>
+      <c r="D66" s="2">
+        <v>41859</v>
+      </c>
+      <c r="E66" s="2">
+        <v>72686</v>
+      </c>
+      <c r="F66" t="s">
+        <v>50</v>
+      </c>
+      <c r="G66" t="s">
+        <v>197</v>
+      </c>
+      <c r="H66" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>131</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B67" t="s">
         <v>168</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C67" t="s">
         <v>132</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D67" s="2">
         <v>42090</v>
       </c>
-      <c r="E65" s="2">
-        <v>72686</v>
-      </c>
-      <c r="F65" t="s">
+      <c r="E67" s="2">
+        <v>72686</v>
+      </c>
+      <c r="F67" t="s">
         <v>7</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G67" t="s">
         <v>209</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H67" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>133</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B68" t="s">
         <v>176</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C68" t="s">
         <v>134</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D68" s="2">
         <v>43431</v>
       </c>
-      <c r="E66" s="2">
-        <v>72686</v>
-      </c>
-      <c r="F66" t="s">
+      <c r="E68" s="2">
+        <v>72686</v>
+      </c>
+      <c r="F68" t="s">
         <v>243</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G68" t="s">
         <v>210</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H68" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>135</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B69" t="s">
         <v>170</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C69" t="s">
         <v>136</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D69" s="2">
         <v>38723</v>
       </c>
-      <c r="E67" s="2">
-        <v>72686</v>
-      </c>
-      <c r="F67" t="s">
+      <c r="E69" s="2">
+        <v>72686</v>
+      </c>
+      <c r="F69" t="s">
         <v>29</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G69" t="s">
         <v>180</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H69" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>137</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B70" t="s">
         <v>168</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C70" t="s">
         <v>138</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D70" s="2">
         <v>43733</v>
       </c>
-      <c r="E68" s="2">
-        <v>72686</v>
-      </c>
-      <c r="F68" t="s">
+      <c r="E70" s="2">
+        <v>72686</v>
+      </c>
+      <c r="F70" t="s">
         <v>50</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G70" t="s">
         <v>197</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H70" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>139</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B71" t="s">
         <v>174</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C71" t="s">
         <v>140</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D71" s="2">
         <v>42083</v>
       </c>
-      <c r="E69" s="2">
-        <v>72686</v>
-      </c>
-      <c r="F69" t="s">
+      <c r="E71" s="2">
+        <v>72686</v>
+      </c>
+      <c r="F71" t="s">
         <v>68</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G71" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>141</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B72" t="s">
         <v>170</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C72" t="s">
         <v>142</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D72" s="2">
         <v>39069</v>
       </c>
-      <c r="E70" s="2">
-        <v>72686</v>
-      </c>
-      <c r="F70" t="s">
+      <c r="E72" s="2">
+        <v>72686</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G72" t="s">
         <v>211</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H72" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>144</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B73" t="s">
         <v>170</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C73" t="s">
         <v>145</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D73" s="2">
         <v>41543</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E73" s="2">
         <v>42468</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F73" t="s">
         <v>50</v>
       </c>
-      <c r="G71" s="3" t="s">
+      <c r="G73" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H73" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>146</v>
-      </c>
-      <c r="B72" t="s">
-        <v>174</v>
-      </c>
-      <c r="C72" t="s">
-        <v>147</v>
-      </c>
-      <c r="D72" s="2">
-        <v>41523</v>
-      </c>
-      <c r="E72" s="2">
-        <v>72686</v>
-      </c>
-      <c r="F72" t="s">
-        <v>68</v>
-      </c>
-      <c r="G72" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>254</v>
-      </c>
-      <c r="B73" t="s">
-        <v>255</v>
-      </c>
-      <c r="C73" t="s">
-        <v>256</v>
-      </c>
-      <c r="D73" s="2">
-        <v>45037</v>
-      </c>
-      <c r="E73" s="2">
-        <v>72686</v>
-      </c>
-      <c r="F73" t="s">
-        <v>62</v>
-      </c>
-      <c r="G73" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>148</v>
       </c>
       <c r="B74" t="s">
         <v>174</v>
       </c>
       <c r="C74" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D74" s="2">
-        <v>43329</v>
+        <v>41523</v>
       </c>
       <c r="E74" s="2">
         <v>72686</v>
@@ -3215,113 +3238,107 @@
         <v>200</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>254</v>
+      </c>
+      <c r="B75" t="s">
+        <v>255</v>
+      </c>
+      <c r="C75" t="s">
+        <v>256</v>
+      </c>
+      <c r="D75" s="2">
+        <v>45037</v>
+      </c>
+      <c r="E75" s="2">
+        <v>72686</v>
+      </c>
+      <c r="F75" t="s">
+        <v>62</v>
+      </c>
+      <c r="G75" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>148</v>
+      </c>
+      <c r="B76" t="s">
+        <v>174</v>
+      </c>
+      <c r="C76" t="s">
+        <v>149</v>
+      </c>
+      <c r="D76" s="2">
+        <v>43329</v>
+      </c>
+      <c r="E76" s="2">
+        <v>72686</v>
+      </c>
+      <c r="F76" t="s">
+        <v>68</v>
+      </c>
+      <c r="G76" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>150</v>
-      </c>
-      <c r="B75" t="s">
-        <v>170</v>
-      </c>
-      <c r="C75" t="s">
-        <v>151</v>
-      </c>
-      <c r="D75" s="2">
-        <v>43686</v>
-      </c>
-      <c r="E75" s="2">
-        <v>72686</v>
-      </c>
-      <c r="F75" t="s">
-        <v>213</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="H75" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>152</v>
-      </c>
-      <c r="B76" t="s">
-        <v>167</v>
-      </c>
-      <c r="C76" t="s">
-        <v>153</v>
-      </c>
-      <c r="D76" s="2">
-        <v>39958</v>
-      </c>
-      <c r="E76" s="2">
-        <v>72686</v>
-      </c>
-      <c r="F76" t="s">
-        <v>41</v>
-      </c>
-      <c r="G76" t="s">
-        <v>192</v>
-      </c>
-      <c r="H76" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>154</v>
       </c>
       <c r="B77" t="s">
         <v>170</v>
       </c>
       <c r="C77" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D77" s="2">
-        <v>41114</v>
+        <v>43686</v>
       </c>
       <c r="E77" s="2">
         <v>72686</v>
       </c>
       <c r="F77" t="s">
-        <v>242</v>
-      </c>
-      <c r="G77" t="s">
-        <v>206</v>
+        <v>213</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="H77" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C78" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D78" s="2">
-        <v>39899</v>
+        <v>39958</v>
       </c>
       <c r="E78" s="2">
         <v>72686</v>
       </c>
       <c r="F78" t="s">
-        <v>246</v>
+        <v>41</v>
       </c>
       <c r="G78" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H78" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B79" t="s">
         <v>170</v>
@@ -3330,10 +3347,10 @@
         <v>155</v>
       </c>
       <c r="D79" s="2">
-        <v>38355</v>
+        <v>41114</v>
       </c>
       <c r="E79" s="2">
-        <v>41417</v>
+        <v>72686</v>
       </c>
       <c r="F79" t="s">
         <v>242</v>
@@ -3342,110 +3359,162 @@
         <v>206</v>
       </c>
       <c r="H79" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>156</v>
+      </c>
+      <c r="B80" t="s">
+        <v>168</v>
+      </c>
+      <c r="C80" t="s">
+        <v>157</v>
+      </c>
+      <c r="D80" s="2">
+        <v>39899</v>
+      </c>
+      <c r="E80" s="2">
+        <v>72686</v>
+      </c>
+      <c r="F80" t="s">
+        <v>246</v>
+      </c>
+      <c r="G80" t="s">
+        <v>197</v>
+      </c>
+      <c r="H80" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>158</v>
+      </c>
+      <c r="B81" t="s">
+        <v>170</v>
+      </c>
+      <c r="C81" t="s">
+        <v>155</v>
+      </c>
+      <c r="D81" s="2">
+        <v>38355</v>
+      </c>
+      <c r="E81" s="2">
+        <v>41417</v>
+      </c>
+      <c r="F81" t="s">
+        <v>242</v>
+      </c>
+      <c r="G81" t="s">
+        <v>206</v>
+      </c>
+      <c r="H81" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>159</v>
-      </c>
-      <c r="B80" t="s">
-        <v>170</v>
-      </c>
-      <c r="C80" t="s">
-        <v>160</v>
-      </c>
-      <c r="D80" s="2">
-        <v>38355</v>
-      </c>
-      <c r="E80" s="2">
-        <v>41235</v>
-      </c>
-      <c r="F80" t="s">
-        <v>242</v>
-      </c>
-      <c r="G80" t="s">
-        <v>185</v>
-      </c>
-      <c r="H80" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>161</v>
-      </c>
-      <c r="B81" t="s">
-        <v>167</v>
-      </c>
-      <c r="C81" t="s">
-        <v>162</v>
-      </c>
-      <c r="D81" s="2">
-        <v>38726</v>
-      </c>
-      <c r="E81" s="2">
-        <v>72686</v>
-      </c>
-      <c r="F81" t="s">
-        <v>4</v>
-      </c>
-      <c r="G81" t="s">
-        <v>212</v>
-      </c>
-      <c r="H81" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>163</v>
       </c>
       <c r="B82" t="s">
         <v>170</v>
       </c>
       <c r="C82" t="s">
+        <v>160</v>
+      </c>
+      <c r="D82" s="2">
+        <v>38355</v>
+      </c>
+      <c r="E82" s="2">
+        <v>41235</v>
+      </c>
+      <c r="F82" t="s">
+        <v>242</v>
+      </c>
+      <c r="G82" t="s">
+        <v>185</v>
+      </c>
+      <c r="H82" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>161</v>
+      </c>
+      <c r="B83" t="s">
+        <v>167</v>
+      </c>
+      <c r="C83" t="s">
+        <v>162</v>
+      </c>
+      <c r="D83" s="2">
+        <v>38726</v>
+      </c>
+      <c r="E83" s="2">
+        <v>72686</v>
+      </c>
+      <c r="F83" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" t="s">
+        <v>212</v>
+      </c>
+      <c r="H83" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>163</v>
+      </c>
+      <c r="B84" t="s">
+        <v>170</v>
+      </c>
+      <c r="C84" t="s">
         <v>145</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D84" s="2">
         <v>42142</v>
       </c>
-      <c r="E82" s="2">
-        <v>72686</v>
-      </c>
-      <c r="F82" t="s">
+      <c r="E84" s="2">
+        <v>72686</v>
+      </c>
+      <c r="F84" t="s">
         <v>57</v>
       </c>
-      <c r="G82" s="3" t="s">
+      <c r="G84" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="H82" t="s">
+      <c r="H84" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>164</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B85" t="s">
         <v>168</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C85" t="s">
         <v>165</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D85" s="2">
         <v>39167</v>
       </c>
-      <c r="E83" s="2">
-        <v>72686</v>
-      </c>
-      <c r="F83" t="s">
+      <c r="E85" s="2">
+        <v>72686</v>
+      </c>
+      <c r="F85" t="s">
         <v>7</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G85" t="s">
         <v>190</v>
       </c>
-      <c r="H83" t="s">
+      <c r="H85" t="s">
         <v>223</v>
       </c>
     </row>

--- a/aiutils/api/future_classify.xlsx
+++ b/aiutils/api/future_classify.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$86</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="274">
   <si>
     <t>underlying</t>
   </si>
@@ -87,9 +87,6 @@
     <t>BC</t>
   </si>
   <si>
-    <t>阴极铜</t>
-  </si>
-  <si>
     <t>BU</t>
   </si>
   <si>
@@ -941,6 +938,22 @@
   </si>
   <si>
     <t>丁二烯橡胶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国际铜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XINE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集运指数欧线</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1320,13 +1333,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1342,23 +1355,23 @@
   <sheetData>
     <row r="1" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1366,25 +1379,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>262</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1392,7 +1405,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -1407,10 +1420,10 @@
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1418,7 +1431,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1433,10 +1446,10 @@
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1444,7 +1457,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -1459,21 +1472,21 @@
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B6" t="s">
         <v>263</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>264</v>
-      </c>
-      <c r="C6" t="s">
-        <v>265</v>
       </c>
       <c r="D6" s="2">
         <v>45096</v>
@@ -1482,13 +1495,13 @@
         <v>72686</v>
       </c>
       <c r="F6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1496,7 +1509,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -1511,10 +1524,10 @@
         <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1522,7 +1535,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -1537,10 +1550,10 @@
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1548,7 +1561,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1560,13 +1573,13 @@
         <v>72686</v>
       </c>
       <c r="F9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1574,7 +1587,7 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -1586,13 +1599,13 @@
         <v>72686</v>
       </c>
       <c r="F10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1600,10 +1613,10 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="D11" s="2">
         <v>44154</v>
@@ -1615,21 +1628,21 @@
         <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>268</v>
+      </c>
+      <c r="B12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" t="s">
         <v>269</v>
-      </c>
-      <c r="B12" t="s">
-        <v>168</v>
-      </c>
-      <c r="C12" t="s">
-        <v>270</v>
       </c>
       <c r="D12" s="2">
         <v>45135</v>
@@ -1638,24 +1651,24 @@
         <v>72686</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" t="s">
         <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>168</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
       </c>
       <c r="D13" s="2">
         <v>41556</v>
@@ -1664,24 +1677,24 @@
         <v>72686</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>167</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
       </c>
       <c r="D14" s="2">
         <v>38355</v>
@@ -1690,24 +1703,24 @@
         <v>72686</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" t="s">
         <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>170</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
       </c>
       <c r="D15" s="2">
         <v>38355</v>
@@ -1716,24 +1729,24 @@
         <v>72686</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" t="s">
         <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>170</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
       </c>
       <c r="D16" s="2">
         <v>43585</v>
@@ -1742,24 +1755,24 @@
         <v>72686</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>167</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
       </c>
       <c r="D17" s="2">
         <v>41992</v>
@@ -1768,24 +1781,24 @@
         <v>72686</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" t="s">
         <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>168</v>
-      </c>
-      <c r="C18" t="s">
-        <v>35</v>
       </c>
       <c r="D18" s="2">
         <v>38355</v>
@@ -1797,21 +1810,21 @@
         <v>7</v>
       </c>
       <c r="G18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C19" t="s">
         <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C19" t="s">
-        <v>37</v>
       </c>
       <c r="D19" s="2">
         <v>42965</v>
@@ -1820,24 +1833,24 @@
         <v>72686</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20" t="s">
         <v>39</v>
-      </c>
-      <c r="B20" t="s">
-        <v>167</v>
-      </c>
-      <c r="C20" t="s">
-        <v>40</v>
       </c>
       <c r="D20" s="2">
         <v>43734</v>
@@ -1846,853 +1859,844 @@
         <v>72686</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>271</v>
       </c>
       <c r="B21" t="s">
-        <v>167</v>
+        <v>272</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>273</v>
       </c>
       <c r="D21" s="2">
-        <v>43444</v>
+        <v>45156</v>
       </c>
       <c r="E21" s="2">
         <v>72686</v>
-      </c>
-      <c r="F21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" t="s">
-        <v>193</v>
-      </c>
-      <c r="H21" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D22" s="2">
-        <v>39923</v>
+        <v>43444</v>
       </c>
       <c r="E22" s="2">
-        <v>41417</v>
+        <v>72686</v>
       </c>
       <c r="F22" t="s">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="G22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H22" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D23" s="2">
-        <v>41614</v>
+        <v>39923</v>
       </c>
       <c r="E23" s="2">
-        <v>72686</v>
+        <v>41417</v>
       </c>
       <c r="F23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G23" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="H23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D24" s="2">
-        <v>41246</v>
+        <v>41614</v>
       </c>
       <c r="E24" s="2">
         <v>72686</v>
       </c>
       <c r="F24" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>192</v>
+        <v>240</v>
+      </c>
+      <c r="G24" t="s">
+        <v>185</v>
       </c>
       <c r="H24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D25" s="2">
-        <v>38355</v>
+        <v>41246</v>
       </c>
       <c r="E25" s="2">
         <v>72686</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" t="s">
-        <v>195</v>
+        <v>49</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="H25" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D26" s="2">
         <v>38355</v>
       </c>
       <c r="E26" s="2">
-        <v>40260</v>
+        <v>72686</v>
       </c>
       <c r="F26" t="s">
-        <v>242</v>
+        <v>22</v>
       </c>
       <c r="G26" t="s">
-        <v>185</v>
+        <v>194</v>
+      </c>
+      <c r="H26" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D27" s="2">
-        <v>41719</v>
+        <v>38355</v>
       </c>
       <c r="E27" s="2">
-        <v>72686</v>
+        <v>40260</v>
       </c>
       <c r="F27" t="s">
-        <v>57</v>
+        <v>241</v>
       </c>
       <c r="G27" t="s">
-        <v>196</v>
-      </c>
-      <c r="H27" t="s">
-        <v>225</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
         <v>167</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D28" s="2">
-        <v>41565</v>
+        <v>41719</v>
       </c>
       <c r="E28" s="2">
         <v>72686</v>
       </c>
       <c r="F28" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G28" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D29" s="2">
-        <v>42110</v>
+        <v>41565</v>
       </c>
       <c r="E29" s="2">
         <v>72686</v>
       </c>
       <c r="F29" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="G29" t="s">
-        <v>198</v>
+        <v>196</v>
+      </c>
+      <c r="H29" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D30" s="2">
-        <v>40284</v>
+        <v>42110</v>
       </c>
       <c r="E30" s="2">
         <v>72686</v>
       </c>
       <c r="F30" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G30" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D31" s="2">
-        <v>42110</v>
+        <v>40284</v>
       </c>
       <c r="E31" s="2">
         <v>72686</v>
       </c>
       <c r="F31" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>247</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s">
-        <v>248</v>
+        <v>173</v>
       </c>
       <c r="C32" t="s">
-        <v>249</v>
+        <v>66</v>
       </c>
       <c r="D32" s="2">
-        <v>44764</v>
+        <v>42110</v>
       </c>
       <c r="E32" s="2">
         <v>72686</v>
       </c>
       <c r="F32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>246</v>
       </c>
       <c r="B33" t="s">
-        <v>167</v>
+        <v>247</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>248</v>
       </c>
       <c r="D33" s="2">
-        <v>40648</v>
+        <v>44764</v>
       </c>
       <c r="E33" s="2">
         <v>72686</v>
       </c>
       <c r="F33" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G33" t="s">
-        <v>197</v>
-      </c>
-      <c r="H33" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D34" s="2">
-        <v>41586</v>
+        <v>40648</v>
       </c>
       <c r="E34" s="2">
         <v>72686</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="G34" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="H34" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C35" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D35" s="2">
-        <v>41355</v>
+        <v>41586</v>
       </c>
       <c r="E35" s="2">
         <v>72686</v>
       </c>
       <c r="F35" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="G35" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H35" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B36" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C36" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D36" s="2">
-        <v>41596</v>
+        <v>41355</v>
       </c>
       <c r="E36" s="2">
         <v>72686</v>
       </c>
       <c r="F36" t="s">
-        <v>242</v>
+        <v>70</v>
       </c>
       <c r="G36" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="H36" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B37" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D37" s="2">
-        <v>39294</v>
+        <v>41596</v>
       </c>
       <c r="E37" s="2">
         <v>72686</v>
       </c>
       <c r="F37" t="s">
-        <v>23</v>
+        <v>241</v>
       </c>
       <c r="G37" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="H37" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>267</v>
+        <v>77</v>
       </c>
       <c r="B38" t="s">
-        <v>252</v>
+        <v>166</v>
       </c>
       <c r="C38" t="s">
-        <v>268</v>
+        <v>78</v>
       </c>
       <c r="D38" s="2">
-        <v>45128</v>
+        <v>39294</v>
       </c>
       <c r="E38" s="2">
         <v>72686</v>
       </c>
       <c r="F38" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G38" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="H38" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>266</v>
       </c>
       <c r="B39" t="s">
-        <v>167</v>
+        <v>251</v>
       </c>
       <c r="C39" t="s">
-        <v>81</v>
+        <v>267</v>
       </c>
       <c r="D39" s="2">
-        <v>44204</v>
+        <v>45128</v>
       </c>
       <c r="E39" s="2">
         <v>72686</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="G39" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="H39" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B40" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C40" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D40" s="2">
-        <v>41828</v>
+        <v>44204</v>
       </c>
       <c r="E40" s="2">
         <v>72686</v>
       </c>
       <c r="F40" t="s">
-        <v>243</v>
+        <v>37</v>
       </c>
       <c r="G40" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="H40" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B41" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C41" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D41" s="2">
-        <v>44004</v>
+        <v>41828</v>
       </c>
       <c r="E41" s="2">
         <v>72686</v>
       </c>
       <c r="F41" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G41" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="H41" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B42" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C42" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D42" s="2">
-        <v>38355</v>
+        <v>44004</v>
       </c>
       <c r="E42" s="2">
         <v>72686</v>
       </c>
       <c r="F42" t="s">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="G42" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="H42" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B43" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C43" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D43" s="2">
-        <v>41807</v>
+        <v>38355</v>
       </c>
       <c r="E43" s="2">
         <v>72686</v>
       </c>
       <c r="F43" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="G43" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="H43" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D44" s="2">
-        <v>40844</v>
+        <v>41807</v>
       </c>
       <c r="E44" s="2">
-        <v>42139</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>237</v>
+        <v>72686</v>
+      </c>
+      <c r="F44" t="s">
+        <v>40</v>
       </c>
       <c r="G44" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="H44" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B45" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C45" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D45" s="2">
-        <v>42090</v>
+        <v>40844</v>
       </c>
       <c r="E45" s="2">
-        <v>72686</v>
-      </c>
-      <c r="F45" t="s">
-        <v>10</v>
+        <v>42139</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="G45" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H45" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B46" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C46" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D46" s="2">
-        <v>43689</v>
+        <v>42090</v>
       </c>
       <c r="E46" s="2">
         <v>72686</v>
       </c>
       <c r="F46" t="s">
-        <v>50</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>192</v>
+        <v>10</v>
+      </c>
+      <c r="G46" t="s">
+        <v>189</v>
       </c>
       <c r="H46" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B47" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C47" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D47" s="2">
-        <v>41106</v>
+        <v>43689</v>
       </c>
       <c r="E47" s="2">
         <v>72686</v>
       </c>
       <c r="F47" t="s">
-        <v>26</v>
-      </c>
-      <c r="G47" t="s">
-        <v>180</v>
+        <v>49</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="H47" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B48" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C48" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D48" s="2">
-        <v>39384</v>
+        <v>41106</v>
       </c>
       <c r="E48" s="2">
         <v>72686</v>
       </c>
       <c r="F48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G48" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="H48" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B49" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C49" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D49" s="2">
-        <v>40626</v>
+        <v>39384</v>
       </c>
       <c r="E49" s="2">
         <v>72686</v>
       </c>
       <c r="F49" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G49" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H49" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B50" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C50" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D50" s="2">
-        <v>44116</v>
+        <v>40626</v>
       </c>
       <c r="E50" s="2">
         <v>72686</v>
       </c>
       <c r="F50" t="s">
-        <v>244</v>
+        <v>10</v>
       </c>
       <c r="G50" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="H50" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B51" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C51" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D51" s="2">
-        <v>43920</v>
+        <v>44116</v>
       </c>
       <c r="E51" s="2">
         <v>72686</v>
       </c>
       <c r="F51" t="s">
-        <v>23</v>
+        <v>243</v>
       </c>
       <c r="G51" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H51" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B52" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C52" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D52" s="2">
-        <v>44228</v>
+        <v>43920</v>
       </c>
       <c r="E52" s="2">
         <v>72686</v>
       </c>
       <c r="F52" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G52" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H52" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B53" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C53" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D53" s="2">
-        <v>40925</v>
+        <v>44228</v>
       </c>
       <c r="E53" s="2">
         <v>72686</v>
       </c>
       <c r="F53" t="s">
-        <v>242</v>
+        <v>4</v>
       </c>
       <c r="G53" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="H53" t="s">
         <v>230</v>
@@ -2700,155 +2704,155 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B54" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C54" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D54" s="2">
-        <v>41698</v>
+        <v>40925</v>
       </c>
       <c r="E54" s="2">
         <v>72686</v>
       </c>
       <c r="F54" t="s">
-        <v>23</v>
+        <v>241</v>
       </c>
       <c r="G54" t="s">
         <v>205</v>
       </c>
       <c r="H54" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B55" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C55" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D55" s="2">
-        <v>39899</v>
+        <v>41698</v>
       </c>
       <c r="E55" s="2">
         <v>72686</v>
       </c>
       <c r="F55" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="G55" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="H55" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B56" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C56" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="D56" s="2">
-        <v>41114</v>
+        <v>39899</v>
       </c>
       <c r="E56" s="2">
         <v>72686</v>
       </c>
       <c r="F56" t="s">
-        <v>240</v>
+        <v>56</v>
       </c>
       <c r="G56" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="H56" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B57" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C57" t="s">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="D57" s="2">
-        <v>41271</v>
+        <v>41114</v>
       </c>
       <c r="E57" s="2">
         <v>72686</v>
       </c>
       <c r="F57" t="s">
-        <v>4</v>
+        <v>239</v>
       </c>
       <c r="G57" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="H57" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B58" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C58" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="D58" s="2">
-        <v>39241</v>
+        <v>41271</v>
       </c>
       <c r="E58" s="2">
-        <v>41409</v>
+        <v>72686</v>
       </c>
       <c r="F58" t="s">
         <v>4</v>
       </c>
       <c r="G58" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H58" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B59" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C59" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="D59" s="2">
-        <v>43693</v>
+        <v>39241</v>
       </c>
       <c r="E59" s="2">
-        <v>72686</v>
+        <v>41409</v>
       </c>
       <c r="F59" t="s">
-        <v>245</v>
+        <v>4</v>
       </c>
       <c r="G59" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="H59" t="s">
         <v>230</v>
@@ -2856,481 +2860,481 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B60" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C60" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D60" s="2">
-        <v>41271</v>
+        <v>43693</v>
       </c>
       <c r="E60" s="2">
         <v>72686</v>
       </c>
       <c r="F60" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G60" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H60" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B61" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C61" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D61" s="2">
-        <v>38355</v>
+        <v>41271</v>
       </c>
       <c r="E61" s="2">
         <v>72686</v>
       </c>
       <c r="F61" t="s">
-        <v>57</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>192</v>
+        <v>241</v>
+      </c>
+      <c r="G61" t="s">
+        <v>184</v>
       </c>
       <c r="H61" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B62" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C62" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D62" s="2">
-        <v>43805</v>
+        <v>38355</v>
       </c>
       <c r="E62" s="2">
         <v>72686</v>
       </c>
       <c r="F62" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H62" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B63" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C63" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D63" s="2">
-        <v>43185</v>
+        <v>43805</v>
       </c>
       <c r="E63" s="2">
         <v>72686</v>
       </c>
       <c r="F63" t="s">
-        <v>41</v>
-      </c>
-      <c r="G63" t="s">
-        <v>192</v>
+        <v>49</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="H63" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B64" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C64" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D64" s="2">
-        <v>41859</v>
+        <v>43185</v>
       </c>
       <c r="E64" s="2">
         <v>72686</v>
       </c>
       <c r="F64" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G64" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="H64" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="B65" t="s">
-        <v>252</v>
+        <v>169</v>
       </c>
       <c r="C65" t="s">
-        <v>253</v>
+        <v>127</v>
       </c>
       <c r="D65" s="2">
-        <v>44917</v>
+        <v>41859</v>
       </c>
       <c r="E65" s="2">
         <v>72686</v>
       </c>
       <c r="F65" t="s">
-        <v>260</v>
+        <v>49</v>
       </c>
       <c r="G65" t="s">
-        <v>259</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>258</v>
+        <v>196</v>
+      </c>
+      <c r="H65" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>129</v>
+        <v>250</v>
       </c>
       <c r="B66" t="s">
-        <v>170</v>
+        <v>251</v>
       </c>
       <c r="C66" t="s">
-        <v>130</v>
+        <v>252</v>
       </c>
       <c r="D66" s="2">
-        <v>41859</v>
+        <v>44917</v>
       </c>
       <c r="E66" s="2">
         <v>72686</v>
       </c>
       <c r="F66" t="s">
-        <v>50</v>
+        <v>259</v>
       </c>
       <c r="G66" t="s">
-        <v>197</v>
-      </c>
-      <c r="H66" t="s">
-        <v>225</v>
+        <v>258</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B67" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C67" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D67" s="2">
-        <v>42090</v>
+        <v>41859</v>
       </c>
       <c r="E67" s="2">
         <v>72686</v>
       </c>
       <c r="F67" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="G67" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="H67" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B68" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C68" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D68" s="2">
-        <v>43431</v>
+        <v>42090</v>
       </c>
       <c r="E68" s="2">
         <v>72686</v>
       </c>
       <c r="F68" t="s">
-        <v>243</v>
+        <v>7</v>
       </c>
       <c r="G68" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H68" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B69" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C69" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D69" s="2">
-        <v>38723</v>
+        <v>43431</v>
       </c>
       <c r="E69" s="2">
         <v>72686</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>242</v>
       </c>
       <c r="G69" t="s">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="H69" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B70" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C70" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D70" s="2">
-        <v>43733</v>
+        <v>38723</v>
       </c>
       <c r="E70" s="2">
         <v>72686</v>
       </c>
       <c r="F70" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G70" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="H70" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B71" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C71" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D71" s="2">
-        <v>42083</v>
+        <v>43733</v>
       </c>
       <c r="E71" s="2">
         <v>72686</v>
       </c>
       <c r="F71" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="G71" t="s">
-        <v>200</v>
+        <v>196</v>
+      </c>
+      <c r="H71" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B72" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C72" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D72" s="2">
-        <v>39069</v>
+        <v>42083</v>
       </c>
       <c r="E72" s="2">
         <v>72686</v>
       </c>
       <c r="F72" t="s">
-        <v>143</v>
+        <v>67</v>
       </c>
       <c r="G72" t="s">
-        <v>211</v>
-      </c>
-      <c r="H72" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B73" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C73" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D73" s="2">
-        <v>41543</v>
+        <v>39069</v>
       </c>
       <c r="E73" s="2">
-        <v>42468</v>
+        <v>72686</v>
       </c>
       <c r="F73" t="s">
-        <v>50</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>192</v>
+        <v>142</v>
+      </c>
+      <c r="G73" t="s">
+        <v>210</v>
       </c>
       <c r="H73" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B74" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C74" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D74" s="2">
-        <v>41523</v>
+        <v>41543</v>
       </c>
       <c r="E74" s="2">
-        <v>72686</v>
+        <v>42468</v>
       </c>
       <c r="F74" t="s">
-        <v>68</v>
-      </c>
-      <c r="G74" t="s">
-        <v>200</v>
+        <v>49</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H74" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>254</v>
+        <v>145</v>
       </c>
       <c r="B75" t="s">
-        <v>255</v>
+        <v>173</v>
       </c>
       <c r="C75" t="s">
-        <v>256</v>
+        <v>146</v>
       </c>
       <c r="D75" s="2">
-        <v>45037</v>
+        <v>41523</v>
       </c>
       <c r="E75" s="2">
         <v>72686</v>
       </c>
       <c r="F75" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G75" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>148</v>
+        <v>253</v>
       </c>
       <c r="B76" t="s">
-        <v>174</v>
+        <v>254</v>
       </c>
       <c r="C76" t="s">
-        <v>149</v>
+        <v>255</v>
       </c>
       <c r="D76" s="2">
-        <v>43329</v>
+        <v>45037</v>
       </c>
       <c r="E76" s="2">
         <v>72686</v>
       </c>
       <c r="F76" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G76" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B77" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C77" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D77" s="2">
-        <v>43686</v>
+        <v>43329</v>
       </c>
       <c r="E77" s="2">
         <v>72686</v>
       </c>
       <c r="F77" t="s">
-        <v>213</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="H77" t="s">
-        <v>227</v>
+        <v>67</v>
+      </c>
+      <c r="G77" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B78" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C78" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D78" s="2">
-        <v>39958</v>
+        <v>43686</v>
       </c>
       <c r="E78" s="2">
         <v>72686</v>
       </c>
       <c r="F78" t="s">
-        <v>41</v>
-      </c>
-      <c r="G78" t="s">
-        <v>192</v>
+        <v>212</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>204</v>
       </c>
       <c r="H78" t="s">
         <v>226</v>
@@ -3338,184 +3342,210 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B79" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C79" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D79" s="2">
-        <v>41114</v>
+        <v>39958</v>
       </c>
       <c r="E79" s="2">
         <v>72686</v>
       </c>
       <c r="F79" t="s">
-        <v>242</v>
+        <v>40</v>
       </c>
       <c r="G79" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="H79" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B80" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C80" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D80" s="2">
-        <v>39899</v>
+        <v>41114</v>
       </c>
       <c r="E80" s="2">
         <v>72686</v>
       </c>
       <c r="F80" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G80" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="H80" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B81" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C81" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D81" s="2">
-        <v>38355</v>
+        <v>39899</v>
       </c>
       <c r="E81" s="2">
-        <v>41417</v>
+        <v>72686</v>
       </c>
       <c r="F81" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G81" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="H81" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B82" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C82" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D82" s="2">
         <v>38355</v>
       </c>
       <c r="E82" s="2">
-        <v>41235</v>
+        <v>41417</v>
       </c>
       <c r="F82" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G82" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="H82" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B83" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C83" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D83" s="2">
-        <v>38726</v>
+        <v>38355</v>
       </c>
       <c r="E83" s="2">
-        <v>72686</v>
+        <v>41235</v>
       </c>
       <c r="F83" t="s">
-        <v>4</v>
+        <v>241</v>
       </c>
       <c r="G83" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="H83" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B84" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C84" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="D84" s="2">
-        <v>42142</v>
+        <v>38726</v>
       </c>
       <c r="E84" s="2">
         <v>72686</v>
       </c>
       <c r="F84" t="s">
-        <v>57</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>192</v>
+        <v>4</v>
+      </c>
+      <c r="G84" t="s">
+        <v>211</v>
       </c>
       <c r="H84" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>162</v>
+      </c>
+      <c r="B85" t="s">
+        <v>169</v>
+      </c>
+      <c r="C85" t="s">
+        <v>144</v>
+      </c>
+      <c r="D85" s="2">
+        <v>42142</v>
+      </c>
+      <c r="E85" s="2">
+        <v>72686</v>
+      </c>
+      <c r="F85" t="s">
+        <v>56</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H85" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>163</v>
+      </c>
+      <c r="B86" t="s">
+        <v>167</v>
+      </c>
+      <c r="C86" t="s">
         <v>164</v>
       </c>
-      <c r="B85" t="s">
-        <v>168</v>
-      </c>
-      <c r="C85" t="s">
-        <v>165</v>
-      </c>
-      <c r="D85" s="2">
+      <c r="D86" s="2">
         <v>39167</v>
       </c>
-      <c r="E85" s="2">
-        <v>72686</v>
-      </c>
-      <c r="F85" t="s">
+      <c r="E86" s="2">
+        <v>72686</v>
+      </c>
+      <c r="F86" t="s">
         <v>7</v>
       </c>
-      <c r="G85" t="s">
-        <v>190</v>
-      </c>
-      <c r="H85" t="s">
-        <v>223</v>
+      <c r="G86" t="s">
+        <v>189</v>
+      </c>
+      <c r="H86" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/aiutils/api/future_classify.xlsx
+++ b/aiutils/api/future_classify.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$88</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="281">
   <si>
     <t>underlying</t>
   </si>
@@ -954,6 +954,34 @@
   </si>
   <si>
     <t>集运指数欧线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XZCE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对二甲苯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XZCE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>烧碱</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1333,13 +1361,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:I88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomRight" activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2756,103 +2784,103 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>110</v>
+        <v>274</v>
       </c>
       <c r="B56" t="s">
-        <v>167</v>
+        <v>275</v>
       </c>
       <c r="C56" t="s">
-        <v>111</v>
+        <v>276</v>
       </c>
       <c r="D56" s="2">
-        <v>39899</v>
+        <v>45184</v>
       </c>
       <c r="E56" s="2">
         <v>72686</v>
       </c>
       <c r="F56" t="s">
-        <v>56</v>
+        <v>277</v>
       </c>
       <c r="G56" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="H56" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B57" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C57" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="D57" s="2">
-        <v>41114</v>
+        <v>39899</v>
       </c>
       <c r="E57" s="2">
         <v>72686</v>
       </c>
       <c r="F57" t="s">
-        <v>239</v>
+        <v>56</v>
       </c>
       <c r="G57" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="H57" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B58" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C58" t="s">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="D58" s="2">
-        <v>41271</v>
+        <v>41114</v>
       </c>
       <c r="E58" s="2">
         <v>72686</v>
       </c>
       <c r="F58" t="s">
-        <v>4</v>
+        <v>239</v>
       </c>
       <c r="G58" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="H58" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B59" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C59" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="D59" s="2">
-        <v>39241</v>
+        <v>41271</v>
       </c>
       <c r="E59" s="2">
-        <v>41409</v>
+        <v>72686</v>
       </c>
       <c r="F59" t="s">
         <v>4</v>
       </c>
       <c r="G59" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H59" t="s">
         <v>230</v>
@@ -2860,100 +2888,100 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B60" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C60" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="D60" s="2">
-        <v>43693</v>
+        <v>39241</v>
       </c>
       <c r="E60" s="2">
-        <v>72686</v>
+        <v>41409</v>
       </c>
       <c r="F60" t="s">
-        <v>244</v>
+        <v>4</v>
       </c>
       <c r="G60" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="H60" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B61" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C61" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D61" s="2">
-        <v>41271</v>
+        <v>43693</v>
       </c>
       <c r="E61" s="2">
         <v>72686</v>
       </c>
       <c r="F61" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G61" t="s">
         <v>184</v>
       </c>
       <c r="H61" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B62" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D62" s="2">
-        <v>38355</v>
+        <v>41271</v>
       </c>
       <c r="E62" s="2">
         <v>72686</v>
       </c>
       <c r="F62" t="s">
-        <v>56</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>191</v>
+        <v>241</v>
+      </c>
+      <c r="G62" t="s">
+        <v>184</v>
       </c>
       <c r="H62" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B63" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D63" s="2">
-        <v>43805</v>
+        <v>38355</v>
       </c>
       <c r="E63" s="2">
         <v>72686</v>
       </c>
       <c r="F63" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>191</v>
@@ -2964,345 +2992,351 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B64" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C64" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D64" s="2">
-        <v>43185</v>
+        <v>43805</v>
       </c>
       <c r="E64" s="2">
         <v>72686</v>
       </c>
       <c r="F64" t="s">
-        <v>40</v>
-      </c>
-      <c r="G64" t="s">
+        <v>49</v>
+      </c>
+      <c r="G64" s="3" t="s">
         <v>191</v>
       </c>
       <c r="H64" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B65" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C65" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D65" s="2">
-        <v>41859</v>
+        <v>43185</v>
       </c>
       <c r="E65" s="2">
         <v>72686</v>
       </c>
       <c r="F65" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G65" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H65" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>250</v>
+        <v>126</v>
       </c>
       <c r="B66" t="s">
-        <v>251</v>
+        <v>169</v>
       </c>
       <c r="C66" t="s">
-        <v>252</v>
+        <v>127</v>
       </c>
       <c r="D66" s="2">
-        <v>44917</v>
+        <v>41859</v>
       </c>
       <c r="E66" s="2">
         <v>72686</v>
       </c>
       <c r="F66" t="s">
-        <v>259</v>
+        <v>49</v>
       </c>
       <c r="G66" t="s">
-        <v>258</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>257</v>
+        <v>196</v>
+      </c>
+      <c r="H66" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>128</v>
+        <v>278</v>
       </c>
       <c r="B67" t="s">
-        <v>169</v>
+        <v>279</v>
       </c>
       <c r="C67" t="s">
-        <v>129</v>
+        <v>280</v>
       </c>
       <c r="D67" s="2">
-        <v>41859</v>
+        <v>45184</v>
       </c>
       <c r="E67" s="2">
         <v>72686</v>
       </c>
       <c r="F67" t="s">
-        <v>49</v>
+        <v>277</v>
       </c>
       <c r="G67" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="H67" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="B68" t="s">
-        <v>167</v>
+        <v>251</v>
       </c>
       <c r="C68" t="s">
-        <v>131</v>
+        <v>252</v>
       </c>
       <c r="D68" s="2">
-        <v>42090</v>
+        <v>44917</v>
       </c>
       <c r="E68" s="2">
         <v>72686</v>
       </c>
       <c r="F68" t="s">
-        <v>7</v>
+        <v>259</v>
       </c>
       <c r="G68" t="s">
-        <v>208</v>
-      </c>
-      <c r="H68" t="s">
-        <v>221</v>
+        <v>258</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B69" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C69" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D69" s="2">
-        <v>43431</v>
+        <v>41859</v>
       </c>
       <c r="E69" s="2">
         <v>72686</v>
       </c>
       <c r="F69" t="s">
-        <v>242</v>
+        <v>49</v>
       </c>
       <c r="G69" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="H69" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B70" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C70" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D70" s="2">
-        <v>38723</v>
+        <v>42090</v>
       </c>
       <c r="E70" s="2">
         <v>72686</v>
       </c>
       <c r="F70" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="G70" t="s">
-        <v>179</v>
+        <v>208</v>
       </c>
       <c r="H70" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B71" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C71" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D71" s="2">
-        <v>43733</v>
+        <v>43431</v>
       </c>
       <c r="E71" s="2">
         <v>72686</v>
       </c>
       <c r="F71" t="s">
-        <v>49</v>
+        <v>242</v>
       </c>
       <c r="G71" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="H71" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B72" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C72" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D72" s="2">
-        <v>42083</v>
+        <v>38723</v>
       </c>
       <c r="E72" s="2">
         <v>72686</v>
       </c>
       <c r="F72" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="G72" t="s">
-        <v>199</v>
+        <v>179</v>
+      </c>
+      <c r="H72" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B73" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C73" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D73" s="2">
-        <v>39069</v>
+        <v>43733</v>
       </c>
       <c r="E73" s="2">
         <v>72686</v>
       </c>
       <c r="F73" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="G73" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="H73" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B74" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C74" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D74" s="2">
-        <v>41543</v>
+        <v>42083</v>
       </c>
       <c r="E74" s="2">
-        <v>42468</v>
+        <v>72686</v>
       </c>
       <c r="F74" t="s">
-        <v>49</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="H74" t="s">
-        <v>233</v>
+        <v>67</v>
+      </c>
+      <c r="G74" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B75" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C75" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D75" s="2">
-        <v>41523</v>
+        <v>39069</v>
       </c>
       <c r="E75" s="2">
         <v>72686</v>
       </c>
       <c r="F75" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="G75" t="s">
-        <v>199</v>
+        <v>210</v>
+      </c>
+      <c r="H75" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>253</v>
+        <v>143</v>
       </c>
       <c r="B76" t="s">
-        <v>254</v>
+        <v>169</v>
       </c>
       <c r="C76" t="s">
-        <v>255</v>
+        <v>144</v>
       </c>
       <c r="D76" s="2">
-        <v>45037</v>
+        <v>41543</v>
       </c>
       <c r="E76" s="2">
-        <v>72686</v>
+        <v>42468</v>
       </c>
       <c r="F76" t="s">
-        <v>61</v>
-      </c>
-      <c r="G76" t="s">
-        <v>197</v>
+        <v>49</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H76" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B77" t="s">
         <v>173</v>
       </c>
       <c r="C77" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D77" s="2">
-        <v>43329</v>
+        <v>41523</v>
       </c>
       <c r="E77" s="2">
         <v>72686</v>
@@ -3316,111 +3350,105 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>149</v>
+        <v>253</v>
       </c>
       <c r="B78" t="s">
-        <v>169</v>
+        <v>254</v>
       </c>
       <c r="C78" t="s">
-        <v>150</v>
+        <v>255</v>
       </c>
       <c r="D78" s="2">
-        <v>43686</v>
+        <v>45037</v>
       </c>
       <c r="E78" s="2">
         <v>72686</v>
       </c>
       <c r="F78" t="s">
-        <v>212</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="H78" t="s">
-        <v>226</v>
+        <v>61</v>
+      </c>
+      <c r="G78" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B79" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C79" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D79" s="2">
-        <v>39958</v>
+        <v>43329</v>
       </c>
       <c r="E79" s="2">
         <v>72686</v>
       </c>
       <c r="F79" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="G79" t="s">
-        <v>191</v>
-      </c>
-      <c r="H79" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B80" t="s">
         <v>169</v>
       </c>
       <c r="C80" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D80" s="2">
-        <v>41114</v>
+        <v>43686</v>
       </c>
       <c r="E80" s="2">
         <v>72686</v>
       </c>
       <c r="F80" t="s">
-        <v>241</v>
-      </c>
-      <c r="G80" t="s">
-        <v>205</v>
+        <v>212</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>204</v>
       </c>
       <c r="H80" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B81" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C81" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D81" s="2">
-        <v>39899</v>
+        <v>39958</v>
       </c>
       <c r="E81" s="2">
         <v>72686</v>
       </c>
       <c r="F81" t="s">
-        <v>245</v>
+        <v>40</v>
       </c>
       <c r="G81" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H81" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B82" t="s">
         <v>169</v>
@@ -3429,10 +3457,10 @@
         <v>154</v>
       </c>
       <c r="D82" s="2">
-        <v>38355</v>
+        <v>41114</v>
       </c>
       <c r="E82" s="2">
-        <v>41417</v>
+        <v>72686</v>
       </c>
       <c r="F82" t="s">
         <v>241</v>
@@ -3441,110 +3469,162 @@
         <v>205</v>
       </c>
       <c r="H82" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B83" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C83" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D83" s="2">
-        <v>38355</v>
+        <v>39899</v>
       </c>
       <c r="E83" s="2">
-        <v>41235</v>
+        <v>72686</v>
       </c>
       <c r="F83" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G83" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="H83" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B84" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C84" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D84" s="2">
-        <v>38726</v>
+        <v>38355</v>
       </c>
       <c r="E84" s="2">
-        <v>72686</v>
+        <v>41417</v>
       </c>
       <c r="F84" t="s">
-        <v>4</v>
+        <v>241</v>
       </c>
       <c r="G84" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H84" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B85" t="s">
         <v>169</v>
       </c>
       <c r="C85" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="D85" s="2">
-        <v>42142</v>
+        <v>38355</v>
       </c>
       <c r="E85" s="2">
-        <v>72686</v>
+        <v>41235</v>
       </c>
       <c r="F85" t="s">
-        <v>56</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>191</v>
+        <v>241</v>
+      </c>
+      <c r="G85" t="s">
+        <v>184</v>
       </c>
       <c r="H85" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>160</v>
+      </c>
+      <c r="B86" t="s">
+        <v>166</v>
+      </c>
+      <c r="C86" t="s">
+        <v>161</v>
+      </c>
+      <c r="D86" s="2">
+        <v>38726</v>
+      </c>
+      <c r="E86" s="2">
+        <v>72686</v>
+      </c>
+      <c r="F86" t="s">
+        <v>4</v>
+      </c>
+      <c r="G86" t="s">
+        <v>211</v>
+      </c>
+      <c r="H86" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>162</v>
+      </c>
+      <c r="B87" t="s">
+        <v>169</v>
+      </c>
+      <c r="C87" t="s">
+        <v>144</v>
+      </c>
+      <c r="D87" s="2">
+        <v>42142</v>
+      </c>
+      <c r="E87" s="2">
+        <v>72686</v>
+      </c>
+      <c r="F87" t="s">
+        <v>56</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H87" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>163</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B88" t="s">
         <v>167</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C88" t="s">
         <v>164</v>
       </c>
-      <c r="D86" s="2">
+      <c r="D88" s="2">
         <v>39167</v>
       </c>
-      <c r="E86" s="2">
-        <v>72686</v>
-      </c>
-      <c r="F86" t="s">
+      <c r="E88" s="2">
+        <v>72686</v>
+      </c>
+      <c r="F88" t="s">
         <v>7</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G88" t="s">
         <v>189</v>
       </c>
-      <c r="H86" t="s">
+      <c r="H88" t="s">
         <v>222</v>
       </c>
     </row>
